--- a/data/predictions/abortion/leveled/republican.xlsx
+++ b/data/predictions/abortion/leveled/republican.xlsx
@@ -859,7 +859,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.3545827330009755</v>
+        <v>0.3447703397973819</v>
       </c>
       <c r="D34">
         <v>0.5083490471870871</v>
@@ -873,7 +873,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.3533256069820357</v>
+        <v>0.3666536655552665</v>
       </c>
       <c r="D35">
         <v>0.5199181549891648</v>
@@ -887,7 +887,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.3512505512046833</v>
+        <v>0.343585619872037</v>
       </c>
       <c r="D36">
         <v>0.5170508617412013</v>
@@ -901,7 +901,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.3491450293953479</v>
+        <v>0.3432670234115577</v>
       </c>
       <c r="D37">
         <v>0.5165140701884828</v>
@@ -915,7 +915,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.3470383727952859</v>
+        <v>0.356718945779705</v>
       </c>
       <c r="D38">
         <v>0.515601060343358</v>
@@ -929,7 +929,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.3449316739268381</v>
+        <v>0.3388899623959585</v>
       </c>
       <c r="D39">
         <v>0.514748784289515</v>
